--- a/04-abril/DETALLE.xlsx
+++ b/04-abril/DETALLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF2CF11-476A-4FA1-9B1C-F2072EA5B50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC382A78-EB85-4606-8809-92720EEA9620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27420" yWindow="3105" windowWidth="21600" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>SUELDOS: MARZO 2025</t>
+    <t>SUELDOS: ABRIL 2025</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,12 +239,6 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCBDA0C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -564,7 +558,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,27 +667,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,6 +674,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1029,7 +1020,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1046,32 +1037,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1125,9 +1116,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
@@ -1148,9 +1139,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="38"/>
     </row>
@@ -1171,9 +1162,9 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="22"/>
       <c r="K6" s="39"/>
     </row>
@@ -1194,9 +1185,9 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1219,9 +1210,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
@@ -1242,9 +1233,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
@@ -1265,9 +1256,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>
@@ -1318,10 +1309,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1354,10 +1345,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1390,8 +1381,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1410,10 +1401,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/04-abril/DETALLE.xlsx
+++ b/04-abril/DETALLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC382A78-EB85-4606-8809-92720EEA9620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A17C9A-6C07-44C8-AC54-298C703F07F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="19155" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +239,12 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBDA0C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -558,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,6 +673,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,22 +697,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1020,7 +1032,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1037,32 +1049,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1116,9 +1128,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="50"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
@@ -1162,9 +1174,9 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="22"/>
       <c r="K6" s="39"/>
     </row>
@@ -1185,9 +1197,9 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1210,9 +1222,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
@@ -1233,9 +1245,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
@@ -1256,9 +1268,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>
@@ -1309,10 +1321,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1345,10 +1357,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1381,8 +1393,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1401,10 +1413,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/04-abril/DETALLE.xlsx
+++ b/04-abril/DETALLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A17C9A-6C07-44C8-AC54-298C703F07F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B58394-5FEA-4A39-98D3-4986BE267D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="19155" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -688,6 +688,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,13 +706,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1032,7 +1035,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1049,32 +1052,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1128,9 +1131,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="50"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="42"/>
-      <c r="I4" s="50"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
@@ -1222,9 +1225,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="52"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="44"/>
-      <c r="I8" s="52"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
@@ -1247,7 +1250,7 @@
       <c r="F9" s="25"/>
       <c r="G9" s="45"/>
       <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
@@ -1268,9 +1271,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="51"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="44"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>
@@ -1321,10 +1324,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1357,10 +1360,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1393,8 +1396,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1413,10 +1416,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/04-abril/DETALLE.xlsx
+++ b/04-abril/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B58394-5FEA-4A39-98D3-4986BE267D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6597DC-600B-4FF5-BE7A-F36A426E6DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="19155" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23295" yWindow="210" windowWidth="19950" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -679,9 +679,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,6 +692,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -706,7 +706,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1131,9 +1131,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="47"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="42"/>
-      <c r="I4" s="47"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
@@ -1154,9 +1154,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="34"/>
       <c r="K5" s="38"/>
     </row>
@@ -1225,9 +1225,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="49"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
@@ -1248,9 +1248,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="53"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
@@ -1271,9 +1271,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="49"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>

--- a/04-abril/DETALLE.xlsx
+++ b/04-abril/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6597DC-600B-4FF5-BE7A-F36A426E6DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E20E576-50AD-4248-8189-3EA4FB425473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23295" yWindow="210" windowWidth="19950" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23295" yWindow="210" windowWidth="20025" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,15 +673,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,6 +689,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -706,7 +703,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1035,7 +1032,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1052,32 +1049,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1131,9 +1128,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="46"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
@@ -1154,9 +1151,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="53"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="53"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="34"/>
       <c r="K5" s="38"/>
     </row>
@@ -1177,9 +1174,9 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="22"/>
       <c r="K6" s="39"/>
     </row>
@@ -1200,9 +1197,9 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1225,9 +1222,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
@@ -1248,9 +1245,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="49"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
@@ -1271,9 +1268,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>
@@ -1324,10 +1321,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1360,10 +1357,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1396,8 +1393,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1416,10 +1413,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="52"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/04-abril/DETALLE.xlsx
+++ b/04-abril/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E20E576-50AD-4248-8189-3EA4FB425473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7499B5BA-704B-4335-8FA7-31E55D15BC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23295" yWindow="210" windowWidth="20025" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23370" yWindow="210" windowWidth="20895" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -676,9 +676,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,6 +689,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1128,9 +1128,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
@@ -1151,9 +1151,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="48"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="34"/>
       <c r="K5" s="38"/>
     </row>
@@ -1174,8 +1174,8 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="42"/>
       <c r="J6" s="22"/>
       <c r="K6" s="39"/>
@@ -1197,8 +1197,8 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
       <c r="I7" s="42"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
@@ -1222,9 +1222,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
@@ -1245,9 +1245,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
@@ -1268,9 +1268,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>

--- a/04-abril/DETALLE.xlsx
+++ b/04-abril/DETALLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\04-abril\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7499B5BA-704B-4335-8FA7-31E55D15BC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745890E9-9877-4049-B64F-0CA3961CF434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23370" yWindow="210" windowWidth="20895" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="2775" windowWidth="26430" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,9 +673,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,6 +689,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -701,9 +701,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1032,7 +1029,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1128,9 +1125,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
@@ -1151,9 +1148,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="34"/>
       <c r="K5" s="38"/>
     </row>
@@ -1174,9 +1171,9 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="42"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="22"/>
       <c r="K6" s="39"/>
     </row>
@@ -1197,9 +1194,9 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="42"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1222,9 +1219,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
@@ -1245,9 +1242,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
@@ -1268,9 +1265,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>
